--- a/data/trans_bre/P22_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>13,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,68</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,83%</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>41,54%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32,07%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-18,4%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 24,78</t>
+          <t>2,76; 24,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 24,22</t>
+          <t>1,04; 22,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 21,43</t>
+          <t>-2,15; 20,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 22,64</t>
+          <t>-15,46; 10,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 122,63</t>
+          <t>-3,27; 21,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 115,24</t>
+          <t>-20,93; 5,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 87,81</t>
+          <t>8,28; 122,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 95,91</t>
+          <t>2,0; 102,34</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,56; 82,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-31,33; 31,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 92,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-42,02; 17,95</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,82</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-14,86%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>-8,38</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>-13,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-1,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-20,62%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 4,82</t>
+          <t>-17,9; 6,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 11,84</t>
+          <t>-7,79; 12,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 8,74</t>
+          <t>-12,46; 9,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 17,08</t>
+          <t>-13,39; 13,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 13,96</t>
+          <t>-8,49; 15,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 43,67</t>
+          <t>-21,47; 3,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 36,76</t>
+          <t>-38,11; 21,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 72,14</t>
+          <t>-20,26; 43,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-32,97; 36,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-32,36; 58,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,69; 69,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-43,83; 10,49</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>11,86</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>1,41</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>21,57%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>14,33%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>44,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-11,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 15,36</t>
+          <t>-4,38; 13,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 11,83</t>
+          <t>-3,65; 11,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 12,88</t>
+          <t>-2,93; 14,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 9,91</t>
+          <t>3,19; 19,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 57,39</t>
+          <t>-8,39; 9,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 45,62</t>
+          <t>-13,98; 4,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 50,59</t>
+          <t>-11,15; 47,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 35,87</t>
+          <t>-10,88; 44,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 55,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 92,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-22,04; 35,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-32,66; 13,44</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,35</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,6</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>18,62%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31,03%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 15,54</t>
+          <t>-1,19; 16,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 19,09</t>
+          <t>3,68; 18,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 18,6</t>
+          <t>3,25; 18,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 17,76</t>
+          <t>-1,03; 16,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 42,23</t>
+          <t>-2,32; 17,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 54,42</t>
+          <t>-6,33; 12,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 56,32</t>
+          <t>-2,84; 41,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 49,91</t>
+          <t>8,43; 53,84</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7,67; 58,51</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 52,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 49,9</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,24; 33,37</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,43</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,87</t>
+          <t>13,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,76</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7,69</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>2,78</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>45,65%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>38,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 26,88</t>
+          <t>6,35; 25,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 22,96</t>
+          <t>4,63; 22,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 22,78</t>
+          <t>4,36; 21,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 12,57</t>
+          <t>-2,09; 17,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,46; 87,62</t>
+          <t>-7,33; 13,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,4; 73,99</t>
+          <t>-4,86; 14,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,18; 69,29</t>
+          <t>14,72; 83,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 35,1</t>
+          <t>11,7; 73,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 64,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 53,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-15,71; 36,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,83; 42,52</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>15,89</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>16,16</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30,54%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36,95%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 28,0</t>
+          <t>4,69; 25,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 11,2</t>
+          <t>-8,88; 12,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 14,57</t>
+          <t>-4,87; 17,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 29,09</t>
+          <t>0,01; 23,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 89,58</t>
+          <t>4,96; 28,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 31,1</t>
+          <t>1,8; 23,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 39,14</t>
+          <t>11,55; 85,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,52; 108,49</t>
+          <t>-17,94; 32,49</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 46,94</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 70,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 111,68</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 87,4</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>22,43%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23,01%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 13,38</t>
+          <t>5,03; 13,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 11,4</t>
+          <t>4,2; 11,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 11,54</t>
+          <t>4,31; 12,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 11,79</t>
+          <t>2,58; 11,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,65; 41,23</t>
+          <t>2,57; 11,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 34,8</t>
+          <t>-4,09; 4,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 35,71</t>
+          <t>13,11; 40,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 36,28</t>
+          <t>11,39; 36,16</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11,75; 37,26</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 36,38</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,09; 35,76</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 13,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
